--- a/WHS_course_catalog.xlsx
+++ b/WHS_course_catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlbox\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F62A657B-87E5-46F4-8F87-6C75B97275BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{16D77E9C-B12A-4797-8F94-C040E9D22B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="221">
   <si>
     <t>Course Name</t>
   </si>
@@ -692,6 +692,12 @@
   </si>
   <si>
     <t>Prior orchestra experience required or can audition</t>
+  </si>
+  <si>
+    <t>[2501,2504]</t>
+  </si>
+  <si>
+    <t>[2504]</t>
   </si>
 </sst>
 </file>
@@ -5396,8 +5402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C210BB8-8306-40AA-89CE-F9D1AE0AEB68}">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="L83" sqref="L83:L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5651,7 +5657,7 @@
         <v>0.5</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>145</v>
@@ -5968,8 +5974,8 @@
       <c r="F26" t="s">
         <v>25</v>
       </c>
-      <c r="G26">
-        <v>2504</v>
+      <c r="G26" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -6877,8 +6883,8 @@
       <c r="E68">
         <v>0.5</v>
       </c>
-      <c r="G68" t="s">
-        <v>69</v>
+      <c r="G68" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="H68" t="s">
         <v>70</v>
@@ -7279,8 +7285,8 @@
       <c r="E86">
         <v>0.5</v>
       </c>
-      <c r="G86" t="s">
-        <v>69</v>
+      <c r="G86" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -7445,8 +7451,8 @@
       <c r="E94">
         <v>0.5</v>
       </c>
-      <c r="G94" t="s">
-        <v>69</v>
+      <c r="G94" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="H94" t="s">
         <v>201</v>
